--- a/wcsa5seleniumproject/Data/ActiTime.xlsx
+++ b/wcsa5seleniumproject/Data/ActiTime.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\wcsa5workspace\wcsa5seleniumproject\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\wcsa5\wcsa5seleniumproject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8897F2AA-B8E5-4CFF-849F-3EBBB9166A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45007D76-6B3E-4CAB-B7C1-9C969489E908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
-    <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="managercreds" sheetId="3" r:id="rId2"/>
+    <sheet name="invalidcreds" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>USERNAME</t>
   </si>
@@ -56,14 +57,40 @@
   </si>
   <si>
     <t>MANAGER123</t>
+  </si>
+  <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>LAST NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohit </t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>manager_01</t>
+  </si>
+  <si>
+    <t>manager123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -79,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,12 +114,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -407,6 +451,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28EF60D-77D5-42E8-B36A-7DA0D8B22045}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA37ABC-955C-4531-B2F0-BC243180E32F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
